--- a/project/Projects 4 Template.xlsx
+++ b/project/Projects 4 Template.xlsx
@@ -581,7 +581,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -702,59 +702,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="175" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="174" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,9 +773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>531720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -793,7 +785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1122480" y="219240"/>
-          <a:ext cx="6755400" cy="5707800"/>
+          <a:ext cx="6755040" cy="5707440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,7 +1365,7 @@
   </sheetPr>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1976,15 +1968,15 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="4" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="10.28"/>
   </cols>
   <sheetData>
@@ -2698,7 +2690,7 @@
   </sheetPr>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5345,729 +5337,729 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topRight" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="28" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="28.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="12.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="4" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="4" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="28" style="4" width="10.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-    </row>
-    <row r="13" s="39" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+    </row>
+    <row r="13" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-    </row>
-    <row r="14" s="39" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+    </row>
+    <row r="14" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-    </row>
-    <row r="15" s="39" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+    </row>
+    <row r="15" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-    </row>
-    <row r="16" s="39" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-    </row>
-    <row r="17" s="39" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+    </row>
+    <row r="16" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+    </row>
+    <row r="17" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-    </row>
-    <row r="18" s="39" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+    </row>
+    <row r="18" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="43"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41"/>
+      <c r="A38" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="41"/>
+      <c r="B40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="43"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="41"/>
+      <c r="B43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="43"/>
+      <c r="D44" s="41"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/project/Projects 4 Template.xlsx
+++ b/project/Projects 4 Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -773,9 +773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -785,7 +785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1122480" y="219240"/>
-          <a:ext cx="6755040" cy="5707440"/>
+          <a:ext cx="6754680" cy="5707080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,34 +1073,34 @@
             <v>0</v>
           </cell>
           <cell r="D11">
-            <v>47997</v>
+            <v>49797</v>
           </cell>
           <cell r="E11">
-            <v>47997</v>
+            <v>52087.662</v>
           </cell>
           <cell r="F11">
-            <v>47997</v>
+            <v>54483.694452</v>
           </cell>
           <cell r="G11">
-            <v>47997</v>
+            <v>56989.944396792</v>
           </cell>
           <cell r="H11">
-            <v>47997</v>
+            <v>59611.4818390444</v>
           </cell>
           <cell r="I11">
-            <v>47997</v>
+            <v>62353.6100036405</v>
           </cell>
           <cell r="J11">
-            <v>47997</v>
+            <v>65221.876063808</v>
           </cell>
           <cell r="K11">
-            <v>47997</v>
+            <v>68222.0823627431</v>
           </cell>
           <cell r="L11">
-            <v>47997</v>
+            <v>71360.2981514293</v>
           </cell>
           <cell r="M11">
-            <v>47997</v>
+            <v>74642.8718663951</v>
           </cell>
         </row>
         <row r="12">
@@ -1111,44 +1111,44 @@
             <v>0</v>
           </cell>
           <cell r="D12">
-            <v>21450</v>
+            <v>22095</v>
           </cell>
           <cell r="E12">
-            <v>21450</v>
+            <v>23111.37</v>
           </cell>
           <cell r="F12">
-            <v>21450</v>
+            <v>24174.49302</v>
           </cell>
           <cell r="G12">
-            <v>21450</v>
+            <v>25286.51969892</v>
           </cell>
           <cell r="H12">
-            <v>21450</v>
+            <v>26449.6996050703</v>
           </cell>
           <cell r="I12">
-            <v>21450</v>
+            <v>27666.3857869036</v>
           </cell>
           <cell r="J12">
-            <v>21450</v>
+            <v>28939.0395331011</v>
           </cell>
           <cell r="K12">
-            <v>21450</v>
+            <v>30270.2353516238</v>
           </cell>
           <cell r="L12">
-            <v>21450</v>
+            <v>31662.6661777985</v>
           </cell>
           <cell r="M12">
-            <v>21450</v>
+            <v>33119.1488219772</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>7000</v>
+            <v>9100</v>
           </cell>
         </row>
         <row r="26">
           <cell r="C26">
-            <v>30000</v>
+            <v>40000</v>
           </cell>
         </row>
         <row r="28">
@@ -1157,91 +1157,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="12">
-          <cell r="B12">
-            <v>7000</v>
-          </cell>
-          <cell r="C12">
-            <v>7000</v>
-          </cell>
-          <cell r="D12">
-            <v>7000</v>
-          </cell>
-          <cell r="E12">
-            <v>7000</v>
-          </cell>
-          <cell r="F12">
-            <v>7000</v>
-          </cell>
-          <cell r="G12">
-            <v>7000</v>
-          </cell>
-          <cell r="H12">
-            <v>7000</v>
-          </cell>
-          <cell r="I12">
-            <v>7000</v>
-          </cell>
-          <cell r="J12">
-            <v>7000</v>
-          </cell>
-          <cell r="K12">
-            <v>7000</v>
-          </cell>
-          <cell r="L12">
-            <v>7000</v>
-          </cell>
-          <cell r="M12">
-            <v>7000</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>-7000</v>
-          </cell>
-          <cell r="C20">
-            <v>-7000</v>
-          </cell>
-          <cell r="D20">
-            <v>19547</v>
-          </cell>
-          <cell r="E20">
-            <v>19547</v>
-          </cell>
-          <cell r="F20">
-            <v>19547</v>
-          </cell>
-          <cell r="G20">
-            <v>19547</v>
-          </cell>
-          <cell r="H20">
-            <v>19547</v>
-          </cell>
-          <cell r="I20">
-            <v>19547</v>
-          </cell>
-          <cell r="J20">
-            <v>19547</v>
-          </cell>
-          <cell r="K20">
-            <v>19547</v>
-          </cell>
-          <cell r="L20">
-            <v>19547</v>
-          </cell>
-          <cell r="M20">
-            <v>19547</v>
-          </cell>
-          <cell r="N20">
-            <v>181470</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="23">
           <cell r="B23">
-            <v>30000</v>
+            <v>0</v>
           </cell>
           <cell r="C23">
             <v>0</v>
@@ -1277,44 +1197,6 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="B32">
-            <v>23000</v>
-          </cell>
-          <cell r="C32">
-            <v>16000</v>
-          </cell>
-          <cell r="D32">
-            <v>35547</v>
-          </cell>
-          <cell r="E32">
-            <v>55094</v>
-          </cell>
-          <cell r="F32">
-            <v>74641</v>
-          </cell>
-          <cell r="G32">
-            <v>94188</v>
-          </cell>
-          <cell r="H32">
-            <v>113735</v>
-          </cell>
-          <cell r="I32">
-            <v>133282</v>
-          </cell>
-          <cell r="J32">
-            <v>152829</v>
-          </cell>
-          <cell r="K32">
-            <v>172376</v>
-          </cell>
-          <cell r="L32">
-            <v>191923</v>
-          </cell>
-          <cell r="M32">
-            <v>211470</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="4"/>
     </sheetDataSet>
@@ -1365,8 +1247,8 @@
   </sheetPr>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5334,10 +5216,10 @@
   </sheetPr>
   <dimension ref="A1:AP44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/project/Projects 4 Template.xlsx
+++ b/project/Projects 4 Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t xml:space="preserve">fall 20</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t xml:space="preserve">Net Profit %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of Recievables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of Payables</t>
   </si>
   <si>
     <t xml:space="preserve">Statement of Cash Flows ($s)</t>
@@ -452,7 +461,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
+      <name val="Nimbus Roman"/>
       <family val="0"/>
     </font>
     <font>
@@ -773,9 +782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -785,7 +794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1122480" y="219240"/>
-          <a:ext cx="6754680" cy="5707080"/>
+          <a:ext cx="6753960" cy="5706360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,7 +843,7 @@
             <a:t>SIE 265 Projects- grading:</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -844,7 +853,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -867,7 +876,7 @@
             <a:t> – Flexibility means that when you change one parameter, or cell value, it will ripple through the Excel model, i.e. linked cells.  This is important for making parameter changes simple and accurate, and for success in later projects.  Your Sales Sheet is one of the main input parameter locations for the model, so make sure it is built to be dynamic/flexible.  </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -877,7 +886,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -900,7 +909,7 @@
             <a:t> – You will find that Excel has many useful pre-existing formulas for your model [=sum(), =pmt(), =nominal(), =max(), etc…].  It is recommended that you become familiar with these as the semester progresses, they are very useful shortcuts/timesavers.  In many cases you won’t use pre-existing formulas, you will make your own [e.g. =f4*(1-$b$2)].  These different formula types are how you show your work.  The correct value is important, but it has to come from a formula of some sort, with the exception of input parameters/cells. </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -910,7 +919,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -933,7 +942,7 @@
             <a:t> – Correctness/accuracy is important however you will find throughout the entire project that one small mistake can ripple through your entire model (e.g. inputting an incorrect interest rate), making all the values incorrect.  This is one reason that we look at the formulas in addition to the values.   </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -943,7 +952,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -966,7 +975,7 @@
             <a:t> – As you will find in your instructions for this project, you must use the accounting format for every cell that has dollars as its unit, and the percentage format for all unitless cells.  Additionally, all dollar cells should be rounded to the nearest whole dollar, with the exception of rates (e.g. cost per unit sold), these should be shown to the hundredths, or nearest cent. Lastly, do not show the dollar symbol in your cells.  You can change this option when you have the ‘format cell’ window open.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -976,7 +985,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -999,7 +1008,7 @@
             <a:t> – This will be pretty simple for the first few projects if you use the provided Wildcat Project Template.  As you add more sheets to your model you will have to create and organize its appearance.  This will be part of the grade for that given sheet.  It is expected to be easy to read and follow, as though you were going to present it to your boss. </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1009,7 +1018,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1032,7 +1041,7 @@
             <a:t> – You must have this as of the completion of the second project.  This will become very important for later projects, it is an indicator that your model is in, or out of balance.  This will be graded by the correctness of the formula (accounting equation), and if it indicates a balanced model (all zero values).    </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -1042,7 +1051,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
+            <a:latin typeface="Nimbus Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1146,16 +1155,6 @@
             <v>9100</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="C26">
-            <v>40000</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>1</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3">
@@ -1247,8 +1246,8 @@
   </sheetPr>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1794,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="17" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1804,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="21" t="n">
-        <v>1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,7 +1815,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="21" t="n">
-        <v>1</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +1850,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2173,7 +2172,7 @@
         <v>214500</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
         <v>38</v>
       </c>
@@ -2246,7 +2245,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
         <v>39</v>
       </c>
@@ -2319,59 +2318,149 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17" t="n">
+        <f aca="false">Debt!B13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="17" t="n">
+        <f aca="false">Debt!C13</f>
+        <v>145.35</v>
+      </c>
+      <c r="E14" s="17" t="n">
+        <f aca="false">Debt!D13</f>
+        <v>141.701134333011</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <f aca="false">Debt!E13</f>
+        <v>138.031470131721</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <f aca="false">Debt!F13</f>
+        <v>134.340888844483</v>
+      </c>
+      <c r="H14" s="17" t="n">
+        <f aca="false">Debt!G13</f>
+        <v>130.629271243907</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <f aca="false">Debt!H13</f>
+        <v>126.896497423009</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <f aca="false">Debt!I13</f>
+        <v>123.142446791331</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <f aca="false">Debt!J13</f>
+        <v>119.366998071053</v>
+      </c>
+      <c r="L14" s="17" t="n">
+        <f aca="false">Debt!K13</f>
+        <v>115.570029293069</v>
+      </c>
+      <c r="M14" s="17" t="n">
+        <f aca="false">Debt!L13</f>
+        <v>111.751417793051</v>
+      </c>
+      <c r="N14" s="17" t="n">
+        <f aca="false">Debt!M13</f>
+        <v>107.911040207483</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="B16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
@@ -2403,47 +2492,47 @@
       </c>
       <c r="D18" s="17" t="n">
         <f aca="false">D10-D12-D14-D15</f>
-        <v>19547</v>
+        <v>19401.65</v>
       </c>
       <c r="E18" s="17" t="n">
         <f aca="false">E10-E12-E14-E15</f>
-        <v>19547</v>
+        <v>19405.298865667</v>
       </c>
       <c r="F18" s="17" t="n">
         <f aca="false">F10-F12-F14-F15</f>
-        <v>19547</v>
+        <v>19408.9685298683</v>
       </c>
       <c r="G18" s="17" t="n">
         <f aca="false">G10-G12-G14-G15</f>
-        <v>19547</v>
+        <v>19412.6591111555</v>
       </c>
       <c r="H18" s="17" t="n">
         <f aca="false">H10-H12-H14-H15</f>
-        <v>19547</v>
+        <v>19416.3707287561</v>
       </c>
       <c r="I18" s="17" t="n">
         <f aca="false">I10-I12-I14-I15</f>
-        <v>19547</v>
+        <v>19420.103502577</v>
       </c>
       <c r="J18" s="17" t="n">
         <f aca="false">J10-J12-J14-J15</f>
-        <v>19547</v>
+        <v>19423.8575532087</v>
       </c>
       <c r="K18" s="17" t="n">
         <f aca="false">K10-K12-K14-K15</f>
-        <v>19547</v>
+        <v>19427.6330019289</v>
       </c>
       <c r="L18" s="17" t="n">
         <f aca="false">L10-L12-L14-L15</f>
-        <v>19547</v>
+        <v>19431.4299707069</v>
       </c>
       <c r="M18" s="17" t="n">
         <f aca="false">M10-M12-M14-M15</f>
-        <v>19547</v>
+        <v>19435.248582207</v>
       </c>
       <c r="N18" s="17" t="n">
         <f aca="false">N10-N12-N14-N15</f>
-        <v>181470</v>
+        <v>181362.088959793</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,47 +2567,47 @@
       </c>
       <c r="D20" s="17" t="n">
         <f aca="false">D18-D19</f>
-        <v>19547</v>
+        <v>19401.65</v>
       </c>
       <c r="E20" s="17" t="n">
         <f aca="false">E18-E19</f>
-        <v>19547</v>
+        <v>19405.298865667</v>
       </c>
       <c r="F20" s="17" t="n">
         <f aca="false">F18-F19</f>
-        <v>19547</v>
+        <v>19408.9685298683</v>
       </c>
       <c r="G20" s="17" t="n">
         <f aca="false">G18-G19</f>
-        <v>19547</v>
+        <v>19412.6591111555</v>
       </c>
       <c r="H20" s="17" t="n">
         <f aca="false">H18-H19</f>
-        <v>19547</v>
+        <v>19416.3707287561</v>
       </c>
       <c r="I20" s="17" t="n">
         <f aca="false">I18-I19</f>
-        <v>19547</v>
+        <v>19420.103502577</v>
       </c>
       <c r="J20" s="17" t="n">
         <f aca="false">J18-J19</f>
-        <v>19547</v>
+        <v>19423.8575532087</v>
       </c>
       <c r="K20" s="17" t="n">
         <f aca="false">K18-K19</f>
-        <v>19547</v>
+        <v>19427.6330019289</v>
       </c>
       <c r="L20" s="17" t="n">
         <f aca="false">L18-L19</f>
-        <v>19547</v>
+        <v>19431.4299707069</v>
       </c>
       <c r="M20" s="17" t="n">
         <f aca="false">M18-M19</f>
-        <v>19547</v>
+        <v>19435.248582207</v>
       </c>
       <c r="N20" s="17" t="n">
         <f aca="false">N18-N19</f>
-        <v>181470</v>
+        <v>181362.088959793</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,10 +2624,20 @@
       <c r="A25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16"/>
+      <c r="A26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="21" t="n">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -2572,8 +2671,8 @@
   </sheetPr>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2607,7 +2706,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -2717,12 +2816,12 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="19" t="n">
         <f aca="false">'[1]Income Statement'!B20</f>
@@ -2779,7 +2878,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2797,52 +2896,64 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B9" s="19" t="n">
-        <v>0</v>
+        <f aca="false">'Balance Sheet'!B21</f>
+        <v>1330</v>
       </c>
       <c r="C9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!C21-'Balance Sheet'!B21</f>
         <v>0</v>
       </c>
       <c r="D9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!D21-'Balance Sheet'!C21</f>
         <v>0</v>
       </c>
       <c r="E9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!E21-'Balance Sheet'!D21</f>
         <v>0</v>
       </c>
       <c r="F9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!F21-'Balance Sheet'!E21</f>
         <v>0</v>
       </c>
       <c r="G9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!G21-'Balance Sheet'!F21</f>
         <v>0</v>
       </c>
       <c r="H9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!H21-'Balance Sheet'!G21</f>
         <v>0</v>
       </c>
       <c r="I9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!I21-'Balance Sheet'!H21</f>
         <v>0</v>
       </c>
       <c r="J9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!J21-'Balance Sheet'!I21</f>
         <v>0</v>
       </c>
       <c r="K9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!K21-'Balance Sheet'!J21</f>
         <v>0</v>
       </c>
       <c r="L9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!L21-'Balance Sheet'!K21</f>
         <v>0</v>
       </c>
       <c r="M9" s="19" t="n">
+        <f aca="false">'Balance Sheet'!M21-'Balance Sheet'!L21</f>
         <v>0</v>
       </c>
       <c r="N9" s="19" t="n">
         <f aca="false">SUM(B9:M9)</f>
-        <v>0</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B10" s="19" t="n">
         <v>0</v>
@@ -2887,7 +2998,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B11" s="19" t="n">
         <v>0</v>
@@ -2930,54 +3041,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-'Balance Sheet'!B9</f>
+        <v>-0</v>
       </c>
       <c r="C12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!C9-'Balance Sheet'!B9)</f>
+        <v>-0</v>
       </c>
       <c r="D12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!D9-'Balance Sheet'!C9)</f>
+        <v>-24478.47</v>
       </c>
       <c r="E12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!E9-'Balance Sheet'!D9)</f>
+        <v>-0</v>
       </c>
       <c r="F12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!F9-'Balance Sheet'!E9)</f>
+        <v>-0</v>
       </c>
       <c r="G12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!G9-'Balance Sheet'!F9)</f>
+        <v>-0</v>
       </c>
       <c r="H12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!H9-'Balance Sheet'!G9)</f>
+        <v>-0</v>
       </c>
       <c r="I12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!I9-'Balance Sheet'!H9)</f>
+        <v>-0</v>
       </c>
       <c r="J12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!J9-'Balance Sheet'!I9)</f>
+        <v>-0</v>
       </c>
       <c r="K12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!K9-'Balance Sheet'!J9)</f>
+        <v>-0</v>
       </c>
       <c r="L12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!L9-'Balance Sheet'!K9)</f>
+        <v>-0</v>
       </c>
       <c r="M12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-('Balance Sheet'!M9-'Balance Sheet'!L9)</f>
+        <v>-0</v>
       </c>
       <c r="N12" s="19" t="n">
         <f aca="false">SUM(B12:M12)</f>
-        <v>0</v>
+        <v>-24478.47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" s="19" t="n">
         <v>0</v>
@@ -3022,11 +3145,11 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B14" s="19" t="n">
         <f aca="false">SUM(B7:B13)</f>
-        <v>-7000</v>
+        <v>-5670</v>
       </c>
       <c r="C14" s="19" t="n">
         <f aca="false">SUM(C7:C13)</f>
@@ -3034,7 +3157,7 @@
       </c>
       <c r="D14" s="19" t="n">
         <f aca="false">SUM(D7:D13)</f>
-        <v>19547</v>
+        <v>-4931.47</v>
       </c>
       <c r="E14" s="19" t="n">
         <f aca="false">SUM(E7:E13)</f>
@@ -3074,7 +3197,7 @@
       </c>
       <c r="N14" s="19" t="n">
         <f aca="false">SUM(N7:N13)</f>
-        <v>181470</v>
+        <v>158321.53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,7 +3218,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -3113,7 +3236,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" s="19" t="n">
         <v>0</v>
@@ -3157,7 +3280,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18" s="19" t="n">
         <v>0</v>
@@ -3217,11 +3340,11 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" s="19" t="n">
         <f aca="false">B14+B18</f>
-        <v>-7000</v>
+        <v>-5670</v>
       </c>
       <c r="C20" s="19" t="n">
         <f aca="false">C14+C18</f>
@@ -3229,7 +3352,7 @@
       </c>
       <c r="D20" s="19" t="n">
         <f aca="false">D14+D18</f>
-        <v>19547</v>
+        <v>-4931.47</v>
       </c>
       <c r="E20" s="19" t="n">
         <f aca="false">E14+E18</f>
@@ -3269,7 +3392,7 @@
       </c>
       <c r="N20" s="19" t="n">
         <f aca="false">N14+N18</f>
-        <v>181470</v>
+        <v>158321.53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,7 +3413,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3308,11 +3431,11 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" s="19" t="n">
-        <f aca="false">'[1]Sales Sheet'!C26</f>
-        <v>30000</v>
+        <f aca="false">'Sales Sheet'!C26</f>
+        <v>40000</v>
       </c>
       <c r="C23" s="19" t="n">
         <f aca="false">'[1]Sales Sheet'!D26</f>
@@ -3360,18 +3483,19 @@
       </c>
       <c r="N23" s="19" t="n">
         <f aca="false">SUM(B23:M23)</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B24" s="19" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="19" t="n">
-        <v>0</v>
+        <f aca="false">Debt!B9</f>
+        <v>25500</v>
       </c>
       <c r="D24" s="19" t="n">
         <v>0</v>
@@ -3405,109 +3529,120 @@
       </c>
       <c r="N24" s="19" t="n">
         <f aca="false">SUM(B24:M24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B25" s="19" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!B14</f>
+        <v>-0</v>
       </c>
       <c r="D25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!C14</f>
+        <v>-640.151871401542</v>
       </c>
       <c r="E25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!D14</f>
+        <v>-643.80073706853</v>
       </c>
       <c r="F25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!E14</f>
+        <v>-647.470401269821</v>
       </c>
       <c r="G25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!F14</f>
+        <v>-651.160982557059</v>
       </c>
       <c r="H25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!G14</f>
+        <v>-654.872600157634</v>
       </c>
       <c r="I25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!H14</f>
+        <v>-658.605373978533</v>
       </c>
       <c r="J25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!I14</f>
+        <v>-662.35942461021</v>
       </c>
       <c r="K25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!J14</f>
+        <v>-666.134873330488</v>
       </c>
       <c r="L25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!K14</f>
+        <v>-669.931842108472</v>
       </c>
       <c r="M25" s="19" t="n">
-        <v>0</v>
+        <f aca="false">-Debt!L14</f>
+        <v>-673.750453608491</v>
       </c>
       <c r="N25" s="19" t="n">
         <f aca="false">SUM(B25:M25)</f>
-        <v>0</v>
+        <v>-6568.23856009078</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B26" s="19" t="n">
         <f aca="false">SUM(B23:B25)</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C26" s="19" t="n">
         <f aca="false">SUM(C23:C25)</f>
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="D26" s="19" t="n">
         <f aca="false">SUM(D23:D25)</f>
-        <v>0</v>
+        <v>-640.151871401542</v>
       </c>
       <c r="E26" s="19" t="n">
         <f aca="false">SUM(E23:E25)</f>
-        <v>0</v>
+        <v>-643.80073706853</v>
       </c>
       <c r="F26" s="19" t="n">
         <f aca="false">SUM(F23:F25)</f>
-        <v>0</v>
+        <v>-647.470401269821</v>
       </c>
       <c r="G26" s="19" t="n">
         <f aca="false">SUM(G23:G25)</f>
-        <v>0</v>
+        <v>-651.160982557059</v>
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(H23:H25)</f>
-        <v>0</v>
+        <v>-654.872600157634</v>
       </c>
       <c r="I26" s="19" t="n">
         <f aca="false">SUM(I23:I25)</f>
-        <v>0</v>
+        <v>-658.605373978533</v>
       </c>
       <c r="J26" s="19" t="n">
         <f aca="false">SUM(J23:J25)</f>
-        <v>0</v>
+        <v>-662.35942461021</v>
       </c>
       <c r="K26" s="19" t="n">
         <f aca="false">SUM(K23:K25)</f>
-        <v>0</v>
+        <v>-666.134873330488</v>
       </c>
       <c r="L26" s="19" t="n">
         <f aca="false">SUM(L23:L25)</f>
-        <v>0</v>
+        <v>-669.931842108472</v>
       </c>
       <c r="M26" s="19" t="n">
         <f aca="false">SUM(M23:M25)</f>
-        <v>0</v>
+        <v>-673.750453608491</v>
       </c>
       <c r="N26" s="19" t="n">
         <f aca="false">SUM(B26:M26)</f>
-        <v>30000</v>
+        <v>58931.7614399092</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,59 +3663,59 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B28" s="19" t="n">
         <f aca="false">B20+B24+B25</f>
-        <v>-7000</v>
+        <v>-5670</v>
       </c>
       <c r="C28" s="19" t="n">
         <f aca="false">C20+C24+C25</f>
-        <v>-7000</v>
+        <v>18500</v>
       </c>
       <c r="D28" s="19" t="n">
         <f aca="false">D20+D24+D25</f>
-        <v>19547</v>
+        <v>-5571.62187140154</v>
       </c>
       <c r="E28" s="19" t="n">
         <f aca="false">E20+E24+E25</f>
-        <v>19547</v>
+        <v>18903.1992629315</v>
       </c>
       <c r="F28" s="19" t="n">
         <f aca="false">F20+F24+F25</f>
-        <v>19547</v>
+        <v>18899.5295987302</v>
       </c>
       <c r="G28" s="19" t="n">
         <f aca="false">G20+G24+G25</f>
-        <v>19547</v>
+        <v>18895.8390174429</v>
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">H20+H24+H25</f>
-        <v>19547</v>
+        <v>18892.1273998424</v>
       </c>
       <c r="I28" s="19" t="n">
         <f aca="false">I20+I24+I25</f>
-        <v>19547</v>
+        <v>18888.3946260215</v>
       </c>
       <c r="J28" s="19" t="n">
         <f aca="false">J20+J24+J25</f>
-        <v>19547</v>
+        <v>18884.6405753898</v>
       </c>
       <c r="K28" s="19" t="n">
         <f aca="false">K20+K24+K25</f>
-        <v>19547</v>
+        <v>18880.8651266695</v>
       </c>
       <c r="L28" s="19" t="n">
         <f aca="false">L20+L24+L25</f>
-        <v>19547</v>
+        <v>18877.0681578915</v>
       </c>
       <c r="M28" s="19" t="n">
         <f aca="false">M20+M24+M25</f>
-        <v>19547</v>
+        <v>18873.2495463915</v>
       </c>
       <c r="N28" s="19" t="n">
         <f aca="false">N20+N24+N25</f>
-        <v>181470</v>
+        <v>177253.291439909</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3601,169 +3736,169 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B30" s="19" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="19" t="n">
         <f aca="false">B32</f>
-        <v>23000</v>
+        <v>34330</v>
       </c>
       <c r="D30" s="19" t="n">
         <f aca="false">C32</f>
-        <v>16000</v>
+        <v>52830</v>
       </c>
       <c r="E30" s="19" t="n">
         <f aca="false">D32</f>
-        <v>35547</v>
+        <v>47258.3781285985</v>
       </c>
       <c r="F30" s="19" t="n">
         <f aca="false">E32</f>
-        <v>55094</v>
+        <v>66161.5773915299</v>
       </c>
       <c r="G30" s="19" t="n">
         <f aca="false">F32</f>
-        <v>74641</v>
+        <v>85061.1069902601</v>
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">G32</f>
-        <v>94188</v>
+        <v>103956.946007703</v>
       </c>
       <c r="I30" s="19" t="n">
         <f aca="false">H32</f>
-        <v>113735</v>
+        <v>122849.073407545</v>
       </c>
       <c r="J30" s="19" t="n">
         <f aca="false">I32</f>
-        <v>133282</v>
+        <v>141737.468033567</v>
       </c>
       <c r="K30" s="19" t="n">
         <f aca="false">J32</f>
-        <v>152829</v>
+        <v>160622.108608957</v>
       </c>
       <c r="L30" s="19" t="n">
         <f aca="false">K32</f>
-        <v>172376</v>
+        <v>179502.973735626</v>
       </c>
       <c r="M30" s="19" t="n">
         <f aca="false">L32</f>
-        <v>191923</v>
+        <v>198380.041893518</v>
       </c>
       <c r="N30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B31" s="19" t="n">
         <f aca="false">B26+B20</f>
-        <v>23000</v>
+        <v>34330</v>
       </c>
       <c r="C31" s="19" t="n">
         <f aca="false">C26+C20</f>
-        <v>-7000</v>
+        <v>18500</v>
       </c>
       <c r="D31" s="19" t="n">
         <f aca="false">D26+D20</f>
-        <v>19547</v>
+        <v>-5571.62187140154</v>
       </c>
       <c r="E31" s="19" t="n">
         <f aca="false">E26+E20</f>
-        <v>19547</v>
+        <v>18903.1992629315</v>
       </c>
       <c r="F31" s="19" t="n">
         <f aca="false">F26+F20</f>
-        <v>19547</v>
+        <v>18899.5295987302</v>
       </c>
       <c r="G31" s="19" t="n">
         <f aca="false">G26+G20</f>
-        <v>19547</v>
+        <v>18895.8390174429</v>
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">H26+H20</f>
-        <v>19547</v>
+        <v>18892.1273998424</v>
       </c>
       <c r="I31" s="19" t="n">
         <f aca="false">I26+I20</f>
-        <v>19547</v>
+        <v>18888.3946260215</v>
       </c>
       <c r="J31" s="19" t="n">
         <f aca="false">J26+J20</f>
-        <v>19547</v>
+        <v>18884.6405753898</v>
       </c>
       <c r="K31" s="19" t="n">
         <f aca="false">K26+K20</f>
-        <v>19547</v>
+        <v>18880.8651266695</v>
       </c>
       <c r="L31" s="19" t="n">
         <f aca="false">L26+L20</f>
-        <v>19547</v>
+        <v>18877.0681578915</v>
       </c>
       <c r="M31" s="19" t="n">
         <f aca="false">M26+M20</f>
-        <v>19547</v>
+        <v>18873.2495463915</v>
       </c>
       <c r="N31" s="19" t="n">
         <f aca="false">SUM(B31:M31)</f>
-        <v>211470</v>
+        <v>217253.291439909</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B32" s="19" t="n">
         <f aca="false">B31+B30</f>
-        <v>23000</v>
+        <v>34330</v>
       </c>
       <c r="C32" s="19" t="n">
         <f aca="false">C31+C30</f>
-        <v>16000</v>
+        <v>52830</v>
       </c>
       <c r="D32" s="19" t="n">
         <f aca="false">D31+D30</f>
-        <v>35547</v>
+        <v>47258.3781285985</v>
       </c>
       <c r="E32" s="19" t="n">
         <f aca="false">E31+E30</f>
-        <v>55094</v>
+        <v>66161.5773915299</v>
       </c>
       <c r="F32" s="19" t="n">
         <f aca="false">F31+F30</f>
-        <v>74641</v>
+        <v>85061.1069902601</v>
       </c>
       <c r="G32" s="19" t="n">
         <f aca="false">G31+G30</f>
-        <v>94188</v>
+        <v>103956.946007703</v>
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">H31+H30</f>
-        <v>113735</v>
+        <v>122849.073407545</v>
       </c>
       <c r="I32" s="19" t="n">
         <f aca="false">I31+I30</f>
-        <v>133282</v>
+        <v>141737.468033567</v>
       </c>
       <c r="J32" s="19" t="n">
         <f aca="false">J31+J30</f>
-        <v>152829</v>
+        <v>160622.108608957</v>
       </c>
       <c r="K32" s="19" t="n">
         <f aca="false">K31+K30</f>
-        <v>172376</v>
+        <v>179502.973735626</v>
       </c>
       <c r="L32" s="19" t="n">
         <f aca="false">L31+L30</f>
-        <v>191923</v>
+        <v>198380.041893518</v>
       </c>
       <c r="M32" s="19" t="n">
         <f aca="false">M31+M30</f>
-        <v>211470</v>
+        <v>217253.291439909</v>
       </c>
       <c r="N32" s="19" t="n">
         <f aca="false">N30+N31</f>
-        <v>211470</v>
+        <v>217253.291439909</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,8 +3936,8 @@
   </sheetPr>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3835,7 +3970,7 @@
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3942,7 +4077,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -3959,7 +4094,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -3976,7 +4111,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="17" t="n">
         <f aca="false">'[1]Cash Flow Statement'!B32</f>
@@ -4027,50 +4162,62 @@
         <v>211470</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="17" t="n">
+        <f aca="false">'Income Statement'!B7*(1-'Sales Sheet'!$C$27)</f>
         <v>0</v>
       </c>
       <c r="C9" s="17" t="n">
+        <f aca="false">'Income Statement'!C7*(1-'Sales Sheet'!$C$27)</f>
         <v>0</v>
       </c>
       <c r="D9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!D7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!E7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="F9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!F7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="G9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!G7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="H9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!H7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="I9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!I7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="J9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!J7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="K9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!K7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="L9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!L7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
       <c r="M9" s="17" t="n">
-        <v>0</v>
+        <f aca="false">'Income Statement'!M7*(1-'Sales Sheet'!$C$27)</f>
+        <v>24478.47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>0</v>
@@ -4111,7 +4258,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="17" t="n">
         <f aca="false">SUM(B8:B10)</f>
@@ -4123,43 +4270,43 @@
       </c>
       <c r="D11" s="17" t="n">
         <f aca="false">SUM(D8:D10)</f>
-        <v>35547</v>
+        <v>60025.47</v>
       </c>
       <c r="E11" s="17" t="n">
         <f aca="false">SUM(E8:E10)</f>
-        <v>55094</v>
+        <v>79572.47</v>
       </c>
       <c r="F11" s="17" t="n">
         <f aca="false">SUM(F8:F10)</f>
-        <v>74641</v>
+        <v>99119.47</v>
       </c>
       <c r="G11" s="17" t="n">
         <f aca="false">SUM(G8:G10)</f>
-        <v>94188</v>
+        <v>118666.47</v>
       </c>
       <c r="H11" s="17" t="n">
         <f aca="false">SUM(H8:H10)</f>
-        <v>113735</v>
+        <v>138213.47</v>
       </c>
       <c r="I11" s="17" t="n">
         <f aca="false">SUM(I8:I10)</f>
-        <v>133282</v>
+        <v>157760.47</v>
       </c>
       <c r="J11" s="17" t="n">
         <f aca="false">SUM(J8:J10)</f>
-        <v>152829</v>
+        <v>177307.47</v>
       </c>
       <c r="K11" s="17" t="n">
         <f aca="false">SUM(K8:K10)</f>
-        <v>172376</v>
+        <v>196854.47</v>
       </c>
       <c r="L11" s="17" t="n">
         <f aca="false">SUM(L8:L10)</f>
-        <v>191923</v>
+        <v>216401.47</v>
       </c>
       <c r="M11" s="17" t="n">
         <f aca="false">SUM(M8:M10)</f>
-        <v>211470</v>
+        <v>235948.47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,7 +4326,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -4196,7 +4343,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>0</v>
@@ -4237,7 +4384,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>0</v>
@@ -4278,7 +4425,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B16" s="17" t="n">
         <f aca="false">SUM(B14:B15)</f>
@@ -4331,7 +4478,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B17" s="17" t="n">
         <f aca="false">B16+B11</f>
@@ -4343,43 +4490,43 @@
       </c>
       <c r="D17" s="17" t="n">
         <f aca="false">D16+D11</f>
-        <v>35547</v>
+        <v>60025.47</v>
       </c>
       <c r="E17" s="17" t="n">
         <f aca="false">E16+E11</f>
-        <v>55094</v>
+        <v>79572.47</v>
       </c>
       <c r="F17" s="17" t="n">
         <f aca="false">F16+F11</f>
-        <v>74641</v>
+        <v>99119.47</v>
       </c>
       <c r="G17" s="17" t="n">
         <f aca="false">G16+G11</f>
-        <v>94188</v>
+        <v>118666.47</v>
       </c>
       <c r="H17" s="17" t="n">
         <f aca="false">H16+H11</f>
-        <v>113735</v>
+        <v>138213.47</v>
       </c>
       <c r="I17" s="17" t="n">
         <f aca="false">I16+I11</f>
-        <v>133282</v>
+        <v>157760.47</v>
       </c>
       <c r="J17" s="17" t="n">
         <f aca="false">J16+J11</f>
-        <v>152829</v>
+        <v>177307.47</v>
       </c>
       <c r="K17" s="17" t="n">
         <f aca="false">K16+K11</f>
-        <v>172376</v>
+        <v>196854.47</v>
       </c>
       <c r="L17" s="17" t="n">
         <f aca="false">L16+L11</f>
-        <v>191923</v>
+        <v>216401.47</v>
       </c>
       <c r="M17" s="17" t="n">
         <f aca="false">M16+M11</f>
-        <v>211470</v>
+        <v>235948.47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,7 +4546,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -4416,7 +4563,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4431,103 +4578,114 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!B12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!B12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="C21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!C12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!C12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="D21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!D12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!D12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="E21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!E12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!E12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="F21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!F12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!F12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="G21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!G12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!G12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="H21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!H12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!H12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="I21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!I12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!I12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="J21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!J12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!J12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="K21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!K12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!K12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="L21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!L12</f>
-        <v>0</v>
+        <f aca="false">'Income Statement'!L12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
       </c>
       <c r="M21" s="17" t="n">
-        <f aca="false">(1-'[1]Sales Sheet'!$C$28)*'[1]Income Statement'!M12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">'Income Statement'!M12*(1-'Sales Sheet'!$C$28)</f>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B22" s="17" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!B17</f>
+        <v>7927.2824902167</v>
       </c>
       <c r="D22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!C17</f>
+        <v>7972.46800041094</v>
       </c>
       <c r="E22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!D17</f>
+        <v>8017.91106801328</v>
       </c>
       <c r="F22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!E17</f>
+        <v>8063.61316110096</v>
       </c>
       <c r="G22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!F17</f>
+        <v>8109.57575611923</v>
       </c>
       <c r="H22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!G17</f>
+        <v>8155.80033792911</v>
       </c>
       <c r="I22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!H17</f>
+        <v>8202.28839985531</v>
       </c>
       <c r="J22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!I17</f>
+        <v>8249.04144373448</v>
       </c>
       <c r="K22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!J17</f>
+        <v>8296.06097996377</v>
       </c>
       <c r="L22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!K17</f>
+        <v>8343.34852754956</v>
       </c>
       <c r="M22" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!L17</f>
+        <v>8390.9056141566</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B23" s="17" t="n">
         <f aca="false">B22</f>
@@ -4535,93 +4693,100 @@
       </c>
       <c r="C23" s="17" t="n">
         <f aca="false">C22</f>
-        <v>0</v>
+        <v>7927.2824902167</v>
       </c>
       <c r="D23" s="17" t="n">
         <f aca="false">D22</f>
-        <v>0</v>
+        <v>7972.46800041094</v>
       </c>
       <c r="E23" s="17" t="n">
         <f aca="false">E22</f>
-        <v>0</v>
+        <v>8017.91106801328</v>
       </c>
       <c r="F23" s="17" t="n">
         <f aca="false">F22</f>
-        <v>0</v>
+        <v>8063.61316110096</v>
       </c>
       <c r="G23" s="17" t="n">
         <f aca="false">G22</f>
-        <v>0</v>
+        <v>8109.57575611923</v>
       </c>
       <c r="H23" s="17" t="n">
         <f aca="false">H22</f>
-        <v>0</v>
+        <v>8155.80033792911</v>
       </c>
       <c r="I23" s="17" t="n">
         <f aca="false">I22</f>
-        <v>0</v>
+        <v>8202.28839985531</v>
       </c>
       <c r="J23" s="17" t="n">
         <f aca="false">J22</f>
-        <v>0</v>
+        <v>8249.04144373448</v>
       </c>
       <c r="K23" s="17" t="n">
         <f aca="false">K22</f>
-        <v>0</v>
+        <v>8296.06097996377</v>
       </c>
       <c r="L23" s="17" t="n">
         <f aca="false">L22</f>
-        <v>0</v>
+        <v>8343.34852754956</v>
       </c>
       <c r="M23" s="17" t="n">
         <f aca="false">M22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8390.9056141566</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B24" s="17" t="n">
-        <v>0</v>
+        <f aca="false">B23+B21</f>
+        <v>1330</v>
       </c>
       <c r="C24" s="17" t="n">
-        <v>0</v>
+        <f aca="false">C23+C21</f>
+        <v>9257.2824902167</v>
       </c>
       <c r="D24" s="17" t="n">
-        <f aca="false">D23+D18</f>
-        <v>0</v>
+        <f aca="false">D23+D21</f>
+        <v>9302.46800041094</v>
       </c>
       <c r="E24" s="17" t="n">
-        <v>0</v>
+        <f aca="false">E23+E21</f>
+        <v>9347.91106801328</v>
       </c>
       <c r="F24" s="17" t="n">
-        <f aca="false">F23+F18</f>
-        <v>0</v>
+        <f aca="false">F23+F21</f>
+        <v>9393.61316110096</v>
       </c>
       <c r="G24" s="17" t="n">
-        <v>0</v>
+        <f aca="false">G23+G21</f>
+        <v>9439.57575611923</v>
       </c>
       <c r="H24" s="17" t="n">
-        <f aca="false">H23+H18</f>
-        <v>0</v>
+        <f aca="false">H23+H21</f>
+        <v>9485.80033792911</v>
       </c>
       <c r="I24" s="17" t="n">
-        <v>0</v>
+        <f aca="false">I23+I21</f>
+        <v>9532.28839985531</v>
       </c>
       <c r="J24" s="17" t="n">
-        <f aca="false">J23+J18</f>
-        <v>0</v>
+        <f aca="false">J23+J21</f>
+        <v>9579.04144373448</v>
       </c>
       <c r="K24" s="17" t="n">
-        <v>0</v>
+        <f aca="false">K23+K21</f>
+        <v>9626.06097996377</v>
       </c>
       <c r="L24" s="17" t="n">
-        <f aca="false">L23+L18</f>
-        <v>0</v>
+        <f aca="false">L23+L21</f>
+        <v>9673.34852754956</v>
       </c>
       <c r="M24" s="17" t="n">
-        <v>0</v>
+        <f aca="false">M23+M21</f>
+        <v>9720.9056141566</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,7 +4806,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -4658,178 +4823,211 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B27" s="17" t="n">
         <v>0</v>
       </c>
       <c r="C27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!B18</f>
+        <v>17572.7175097833</v>
       </c>
       <c r="D27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!C18</f>
+        <v>16887.3801281875</v>
       </c>
       <c r="E27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!D18</f>
+        <v>16198.1363235167</v>
       </c>
       <c r="F27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!E18</f>
+        <v>15504.9638291592</v>
       </c>
       <c r="G27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!F18</f>
+        <v>14807.8402515838</v>
       </c>
       <c r="H27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!G18</f>
+        <v>14106.7430696163</v>
       </c>
       <c r="I27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!H18</f>
+        <v>13401.6496337116</v>
       </c>
       <c r="J27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!I18</f>
+        <v>12692.5371652222</v>
       </c>
       <c r="K27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!J18</f>
+        <v>11979.3827556624</v>
       </c>
       <c r="L27" s="17" t="n">
-        <v>0</v>
+        <f aca="false">Debt!K18</f>
+        <v>11262.1633659682</v>
       </c>
       <c r="M27" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">Debt!L18</f>
+        <v>10540.8558257526</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">C27</f>
+        <v>17572.7175097833</v>
       </c>
       <c r="D28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">D27</f>
+        <v>16887.3801281875</v>
       </c>
       <c r="E28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">E27</f>
+        <v>16198.1363235167</v>
       </c>
       <c r="F28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">F27</f>
+        <v>15504.9638291592</v>
       </c>
       <c r="G28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">G27</f>
+        <v>14807.8402515838</v>
       </c>
       <c r="H28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">H27</f>
+        <v>14106.7430696163</v>
       </c>
       <c r="I28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">I27</f>
+        <v>13401.6496337116</v>
       </c>
       <c r="J28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">J27</f>
+        <v>12692.5371652222</v>
       </c>
       <c r="K28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">K27</f>
+        <v>11979.3827556624</v>
       </c>
       <c r="L28" s="17" t="n">
-        <v>0</v>
+        <f aca="false">L27</f>
+        <v>11262.1633659682</v>
       </c>
       <c r="M28" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">M27</f>
+        <v>10540.8558257526</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B29" s="17" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">C28</f>
+        <v>17572.7175097833</v>
       </c>
       <c r="D29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">D28</f>
+        <v>16887.3801281875</v>
       </c>
       <c r="E29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">E28</f>
+        <v>16198.1363235167</v>
       </c>
       <c r="F29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">F28</f>
+        <v>15504.9638291592</v>
       </c>
       <c r="G29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">G28</f>
+        <v>14807.8402515838</v>
       </c>
       <c r="H29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">H28</f>
+        <v>14106.7430696163</v>
       </c>
       <c r="I29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">I28</f>
+        <v>13401.6496337116</v>
       </c>
       <c r="J29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">J28</f>
+        <v>12692.5371652222</v>
       </c>
       <c r="K29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">K28</f>
+        <v>11979.3827556624</v>
       </c>
       <c r="L29" s="17" t="n">
-        <v>0</v>
+        <f aca="false">L28</f>
+        <v>11262.1633659682</v>
       </c>
       <c r="M29" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">M28</f>
+        <v>10540.8558257526</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B30" s="17" t="n">
         <f aca="false">B21+B23</f>
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="C30" s="17" t="n">
-        <f aca="false">C21+C23</f>
-        <v>0</v>
+        <f aca="false">C27+C22</f>
+        <v>25500</v>
       </c>
       <c r="D30" s="17" t="n">
-        <f aca="false">D21+D23</f>
-        <v>0</v>
+        <f aca="false">D27+D22</f>
+        <v>24859.8481285985</v>
       </c>
       <c r="E30" s="17" t="n">
-        <f aca="false">E21+E23</f>
-        <v>0</v>
+        <f aca="false">E27+E22</f>
+        <v>24216.0473915299</v>
       </c>
       <c r="F30" s="17" t="n">
-        <f aca="false">F21+F23</f>
-        <v>0</v>
+        <f aca="false">F27+F22</f>
+        <v>23568.5769902601</v>
       </c>
       <c r="G30" s="17" t="n">
-        <f aca="false">G21+G23</f>
-        <v>0</v>
+        <f aca="false">G27+G22</f>
+        <v>22917.4160077031</v>
       </c>
       <c r="H30" s="17" t="n">
-        <f aca="false">H21+H23</f>
-        <v>0</v>
+        <f aca="false">H27+H22</f>
+        <v>22262.5434075454</v>
       </c>
       <c r="I30" s="17" t="n">
-        <f aca="false">I21+I23</f>
-        <v>0</v>
+        <f aca="false">I27+I22</f>
+        <v>21603.9380335669</v>
       </c>
       <c r="J30" s="17" t="n">
-        <f aca="false">J21+J23</f>
-        <v>0</v>
+        <f aca="false">J27+J22</f>
+        <v>20941.5786089567</v>
       </c>
       <c r="K30" s="17" t="n">
-        <f aca="false">K21+K23</f>
-        <v>0</v>
+        <f aca="false">K27+K22</f>
+        <v>20275.4437356262</v>
       </c>
       <c r="L30" s="17" t="n">
-        <f aca="false">L21+L23</f>
-        <v>0</v>
+        <f aca="false">L27+L22</f>
+        <v>19605.5118935177</v>
       </c>
       <c r="M30" s="17" t="n">
-        <f aca="false">M21+M23</f>
-        <v>0</v>
+        <f aca="false">M27+M22</f>
+        <v>18931.7614399092</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,7 +5047,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B32" s="17" t="n">
         <f aca="false">'[1]Cash Flow Statement'!B23</f>
@@ -4902,7 +5100,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B33" s="17" t="n">
         <f aca="false">'[1]Income Statement'!B20</f>
@@ -4955,7 +5153,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B34" s="17" t="n">
         <f aca="false">B33+B32</f>
@@ -5023,55 +5221,55 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B36" s="17" t="n">
         <f aca="false">B34+B30</f>
-        <v>23000</v>
+        <v>24330</v>
       </c>
       <c r="C36" s="17" t="n">
         <f aca="false">C34+C30</f>
-        <v>16000</v>
+        <v>41500</v>
       </c>
       <c r="D36" s="17" t="n">
         <f aca="false">D34+D30</f>
-        <v>35547</v>
+        <v>60406.8481285985</v>
       </c>
       <c r="E36" s="17" t="n">
         <f aca="false">E34+E30</f>
-        <v>55094</v>
+        <v>79310.0473915299</v>
       </c>
       <c r="F36" s="17" t="n">
         <f aca="false">F34+F30</f>
-        <v>74641</v>
+        <v>98209.5769902601</v>
       </c>
       <c r="G36" s="17" t="n">
         <f aca="false">G34+G30</f>
-        <v>94188</v>
+        <v>117105.416007703</v>
       </c>
       <c r="H36" s="17" t="n">
         <f aca="false">H34+H30</f>
-        <v>113735</v>
+        <v>135997.543407545</v>
       </c>
       <c r="I36" s="17" t="n">
         <f aca="false">I34+I30</f>
-        <v>133282</v>
+        <v>154885.938033567</v>
       </c>
       <c r="J36" s="17" t="n">
         <f aca="false">J34+J30</f>
-        <v>152829</v>
+        <v>173770.578608957</v>
       </c>
       <c r="K36" s="17" t="n">
         <f aca="false">K34+K30</f>
-        <v>172376</v>
+        <v>192651.443735626</v>
       </c>
       <c r="L36" s="17" t="n">
         <f aca="false">L34+L30</f>
-        <v>191923</v>
+        <v>211528.511893518</v>
       </c>
       <c r="M36" s="17" t="n">
         <f aca="false">M34+M30</f>
-        <v>211470</v>
+        <v>230401.761439909</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +5302,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -5135,55 +5333,55 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B41" s="17" t="n">
         <f aca="false">B17-B36</f>
-        <v>0</v>
+        <v>-1330</v>
       </c>
       <c r="C41" s="17" t="n">
         <f aca="false">C17-C36</f>
-        <v>0</v>
+        <v>-25500</v>
       </c>
       <c r="D41" s="17" t="n">
         <f aca="false">D17-D36</f>
-        <v>0</v>
+        <v>-381.378128598459</v>
       </c>
       <c r="E41" s="17" t="n">
         <f aca="false">E17-E36</f>
-        <v>0</v>
+        <v>262.422608470064</v>
       </c>
       <c r="F41" s="17" t="n">
         <f aca="false">F17-F36</f>
-        <v>0</v>
+        <v>909.893009739899</v>
       </c>
       <c r="G41" s="17" t="n">
         <f aca="false">G17-G36</f>
-        <v>0</v>
+        <v>1561.05399229695</v>
       </c>
       <c r="H41" s="17" t="n">
         <f aca="false">H17-H36</f>
-        <v>0</v>
+        <v>2215.92659245458</v>
       </c>
       <c r="I41" s="17" t="n">
         <f aca="false">I17-I36</f>
-        <v>0</v>
+        <v>2874.5319664331</v>
       </c>
       <c r="J41" s="17" t="n">
         <f aca="false">J17-J36</f>
-        <v>0</v>
+        <v>3536.89139104332</v>
       </c>
       <c r="K41" s="17" t="n">
         <f aca="false">K17-K36</f>
-        <v>0</v>
+        <v>4203.02626437382</v>
       </c>
       <c r="L41" s="17" t="n">
         <f aca="false">L17-L36</f>
-        <v>0</v>
+        <v>4872.95810648229</v>
       </c>
       <c r="M41" s="17" t="n">
         <f aca="false">M17-M36</f>
-        <v>0</v>
+        <v>5546.70856009077</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,7 +5417,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topRight" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5236,10 +5434,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,43 +5460,117 @@
       <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
+      <c r="B3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="P3" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="R3" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="S3" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="T3" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="U3" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="V3" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="W3" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="X3" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL3" s="16" t="n">
+        <v>36</v>
+      </c>
       <c r="AM3" s="16"/>
       <c r="AN3" s="16"/>
       <c r="AO3" s="16"/>
@@ -5350,7 +5622,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -5369,9 +5641,11 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="16"/>
+        <v>105</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>36</v>
+      </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5388,9 +5662,11 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="B7" s="33" t="n">
+        <v>0.0684</v>
+      </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -5407,9 +5683,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="B8" s="33" t="n">
+        <f aca="false">B7/12</f>
+        <v>0.0057</v>
+      </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -5426,9 +5705,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="B9" s="34" t="n">
+        <v>25500</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -5445,9 +5726,12 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="34"/>
+        <v>109</v>
+      </c>
+      <c r="B10" s="34" t="n">
+        <f aca="false">PMT(B8,B6,-B9)</f>
+        <v>785.501871401542</v>
+      </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -5479,181 +5763,616 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-    </row>
-    <row r="13" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="34" t="n">
+        <f aca="false">B15</f>
+        <v>25500</v>
+      </c>
+      <c r="D12" s="34" t="n">
+        <f aca="false">C15</f>
+        <v>24859.8481285985</v>
+      </c>
+      <c r="E12" s="34" t="n">
+        <f aca="false">D15</f>
+        <v>24216.0473915299</v>
+      </c>
+      <c r="F12" s="34" t="n">
+        <f aca="false">E15</f>
+        <v>23568.5769902601</v>
+      </c>
+      <c r="G12" s="34" t="n">
+        <f aca="false">F15</f>
+        <v>22917.4160077031</v>
+      </c>
+      <c r="H12" s="34" t="n">
+        <f aca="false">G15</f>
+        <v>22262.5434075454</v>
+      </c>
+      <c r="I12" s="34" t="n">
+        <f aca="false">H15</f>
+        <v>21603.9380335669</v>
+      </c>
+      <c r="J12" s="34" t="n">
+        <f aca="false">I15</f>
+        <v>20941.5786089567</v>
+      </c>
+      <c r="K12" s="34" t="n">
+        <f aca="false">J15</f>
+        <v>20275.4437356262</v>
+      </c>
+      <c r="L12" s="34" t="n">
+        <f aca="false">K15</f>
+        <v>19605.5118935177</v>
+      </c>
+      <c r="M12" s="34" t="n">
+        <f aca="false">L15</f>
+        <v>18931.7614399092</v>
+      </c>
+      <c r="N12" s="34" t="n">
+        <f aca="false">M15</f>
+        <v>18254.1706087152</v>
+      </c>
+      <c r="O12" s="34" t="n">
+        <f aca="false">N15</f>
+        <v>17572.7175097833</v>
+      </c>
+      <c r="P12" s="34" t="n">
+        <f aca="false">O15</f>
+        <v>16887.3801281875</v>
+      </c>
+      <c r="Q12" s="34" t="n">
+        <f aca="false">P15</f>
+        <v>16198.1363235167</v>
+      </c>
+      <c r="R12" s="34" t="n">
+        <f aca="false">Q15</f>
+        <v>15504.9638291592</v>
+      </c>
+      <c r="S12" s="34" t="n">
+        <f aca="false">R15</f>
+        <v>14807.8402515838</v>
+      </c>
+      <c r="T12" s="34" t="n">
+        <f aca="false">S15</f>
+        <v>14106.7430696163</v>
+      </c>
+      <c r="U12" s="34" t="n">
+        <f aca="false">T15</f>
+        <v>13401.6496337116</v>
+      </c>
+      <c r="V12" s="34" t="n">
+        <f aca="false">U15</f>
+        <v>12692.5371652222</v>
+      </c>
+      <c r="W12" s="34" t="n">
+        <f aca="false">V15</f>
+        <v>11979.3827556624</v>
+      </c>
+      <c r="X12" s="34" t="n">
+        <f aca="false">W15</f>
+        <v>11262.1633659682</v>
+      </c>
+      <c r="Y12" s="34" t="n">
+        <f aca="false">X15</f>
+        <v>10540.8558257526</v>
+      </c>
+      <c r="Z12" s="34" t="n">
+        <f aca="false">Y15</f>
+        <v>9815.43683255788</v>
+      </c>
+      <c r="AA12" s="34" t="n">
+        <f aca="false">Z15</f>
+        <v>9085.88295110192</v>
+      </c>
+      <c r="AB12" s="34" t="n">
+        <f aca="false">AA15</f>
+        <v>8352.17061252166</v>
+      </c>
+      <c r="AC12" s="34" t="n">
+        <f aca="false">AB15</f>
+        <v>7614.27611361149</v>
+      </c>
+      <c r="AD12" s="34" t="n">
+        <f aca="false">AC15</f>
+        <v>6872.17561605753</v>
+      </c>
+      <c r="AE12" s="34" t="n">
+        <f aca="false">AD15</f>
+        <v>6125.84514566752</v>
+      </c>
+      <c r="AF12" s="34" t="n">
+        <f aca="false">AE15</f>
+        <v>5375.26059159628</v>
+      </c>
+      <c r="AG12" s="34" t="n">
+        <f aca="false">AF15</f>
+        <v>4620.39770556684</v>
+      </c>
+      <c r="AH12" s="34" t="n">
+        <f aca="false">AG15</f>
+        <v>3861.23210108703</v>
+      </c>
+      <c r="AI12" s="34" t="n">
+        <f aca="false">AH15</f>
+        <v>3097.73925266168</v>
+      </c>
+      <c r="AJ12" s="34" t="n">
+        <f aca="false">AI15</f>
+        <v>2329.89449500031</v>
+      </c>
+      <c r="AK12" s="34" t="n">
+        <f aca="false">AJ15</f>
+        <v>1557.67302222027</v>
+      </c>
+      <c r="AL12" s="34" t="n">
+        <f aca="false">AK15</f>
+        <v>781.049887045385</v>
+      </c>
+    </row>
+    <row r="13" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
+      <c r="C13" s="36" t="n">
+        <f aca="false">C12*$B$8</f>
+        <v>145.35</v>
+      </c>
+      <c r="D13" s="36" t="n">
+        <f aca="false">D12*$B$8</f>
+        <v>141.701134333011</v>
+      </c>
+      <c r="E13" s="36" t="n">
+        <f aca="false">E12*$B$8</f>
+        <v>138.031470131721</v>
+      </c>
+      <c r="F13" s="36" t="n">
+        <f aca="false">F12*$B$8</f>
+        <v>134.340888844483</v>
+      </c>
+      <c r="G13" s="36" t="n">
+        <f aca="false">G12*$B$8</f>
+        <v>130.629271243907</v>
+      </c>
+      <c r="H13" s="36" t="n">
+        <f aca="false">H12*$B$8</f>
+        <v>126.896497423009</v>
+      </c>
+      <c r="I13" s="36" t="n">
+        <f aca="false">I12*$B$8</f>
+        <v>123.142446791331</v>
+      </c>
+      <c r="J13" s="36" t="n">
+        <f aca="false">J12*$B$8</f>
+        <v>119.366998071053</v>
+      </c>
+      <c r="K13" s="36" t="n">
+        <f aca="false">K12*$B$8</f>
+        <v>115.570029293069</v>
+      </c>
+      <c r="L13" s="36" t="n">
+        <f aca="false">L12*$B$8</f>
+        <v>111.751417793051</v>
+      </c>
+      <c r="M13" s="36" t="n">
+        <f aca="false">M12*$B$8</f>
+        <v>107.911040207483</v>
+      </c>
+      <c r="N13" s="36" t="n">
+        <f aca="false">N12*$B$8</f>
+        <v>104.048772469676</v>
+      </c>
+      <c r="O13" s="36" t="n">
+        <f aca="false">O12*$B$8</f>
+        <v>100.164489805765</v>
+      </c>
+      <c r="P13" s="36" t="n">
+        <f aca="false">P12*$B$8</f>
+        <v>96.2580667306689</v>
+      </c>
+      <c r="Q13" s="36" t="n">
+        <f aca="false">Q12*$B$8</f>
+        <v>92.3293770440449</v>
+      </c>
+      <c r="R13" s="36" t="n">
+        <f aca="false">R12*$B$8</f>
+        <v>88.3782938262072</v>
+      </c>
+      <c r="S13" s="36" t="n">
+        <f aca="false">S12*$B$8</f>
+        <v>84.4046894340278</v>
+      </c>
+      <c r="T13" s="36" t="n">
+        <f aca="false">T12*$B$8</f>
+        <v>80.408435496813</v>
+      </c>
+      <c r="U13" s="36" t="n">
+        <f aca="false">U12*$B$8</f>
+        <v>76.389402912156</v>
+      </c>
+      <c r="V13" s="36" t="n">
+        <f aca="false">V12*$B$8</f>
+        <v>72.3474618417665</v>
+      </c>
+      <c r="W13" s="36" t="n">
+        <f aca="false">W12*$B$8</f>
+        <v>68.2824817072758</v>
+      </c>
+      <c r="X13" s="36" t="n">
+        <f aca="false">X12*$B$8</f>
+        <v>64.1943311860185</v>
+      </c>
+      <c r="Y13" s="36" t="n">
+        <f aca="false">Y12*$B$8</f>
+        <v>60.08287820679</v>
+      </c>
+      <c r="Z13" s="36" t="n">
+        <f aca="false">Z12*$B$8</f>
+        <v>55.9479899455799</v>
+      </c>
+      <c r="AA13" s="36" t="n">
+        <f aca="false">AA12*$B$8</f>
+        <v>51.7895328212809</v>
+      </c>
+      <c r="AB13" s="36" t="n">
+        <f aca="false">AB12*$B$8</f>
+        <v>47.6073724913734</v>
+      </c>
+      <c r="AC13" s="36" t="n">
+        <f aca="false">AC12*$B$8</f>
+        <v>43.4013738475855</v>
+      </c>
+      <c r="AD13" s="36" t="n">
+        <f aca="false">AD12*$B$8</f>
+        <v>39.1714010115279</v>
+      </c>
+      <c r="AE13" s="36" t="n">
+        <f aca="false">AE12*$B$8</f>
+        <v>34.9173173303049</v>
+      </c>
+      <c r="AF13" s="36" t="n">
+        <f aca="false">AF12*$B$8</f>
+        <v>30.6389853720988</v>
+      </c>
+      <c r="AG13" s="36" t="n">
+        <f aca="false">AG12*$B$8</f>
+        <v>26.336266921731</v>
+      </c>
+      <c r="AH13" s="36" t="n">
+        <f aca="false">AH12*$B$8</f>
+        <v>22.0090229761961</v>
+      </c>
+      <c r="AI13" s="36" t="n">
+        <f aca="false">AI12*$B$8</f>
+        <v>17.6571137401716</v>
+      </c>
+      <c r="AJ13" s="36" t="n">
+        <f aca="false">AJ12*$B$8</f>
+        <v>13.2803986215018</v>
+      </c>
+      <c r="AK13" s="36" t="n">
+        <f aca="false">AK12*$B$8</f>
+        <v>8.87873622665554</v>
+      </c>
+      <c r="AL13" s="36" t="n">
+        <f aca="false">AL12*$B$8</f>
+        <v>4.45198435615869</v>
+      </c>
       <c r="AM13" s="36"/>
       <c r="AN13" s="36"/>
       <c r="AO13" s="36"/>
       <c r="AP13" s="36"/>
     </row>
-    <row r="14" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
+      <c r="C14" s="36" t="n">
+        <f aca="false">$B$10-C13</f>
+        <v>640.151871401542</v>
+      </c>
+      <c r="D14" s="36" t="n">
+        <f aca="false">$B$10-D13</f>
+        <v>643.80073706853</v>
+      </c>
+      <c r="E14" s="36" t="n">
+        <f aca="false">$B$10-E13</f>
+        <v>647.470401269821</v>
+      </c>
+      <c r="F14" s="36" t="n">
+        <f aca="false">$B$10-F13</f>
+        <v>651.160982557059</v>
+      </c>
+      <c r="G14" s="36" t="n">
+        <f aca="false">$B$10-G13</f>
+        <v>654.872600157634</v>
+      </c>
+      <c r="H14" s="36" t="n">
+        <f aca="false">$B$10-H13</f>
+        <v>658.605373978533</v>
+      </c>
+      <c r="I14" s="36" t="n">
+        <f aca="false">$B$10-I13</f>
+        <v>662.35942461021</v>
+      </c>
+      <c r="J14" s="36" t="n">
+        <f aca="false">$B$10-J13</f>
+        <v>666.134873330488</v>
+      </c>
+      <c r="K14" s="36" t="n">
+        <f aca="false">$B$10-K13</f>
+        <v>669.931842108472</v>
+      </c>
+      <c r="L14" s="36" t="n">
+        <f aca="false">$B$10-L13</f>
+        <v>673.750453608491</v>
+      </c>
+      <c r="M14" s="36" t="n">
+        <f aca="false">$B$10-M13</f>
+        <v>677.590831194059</v>
+      </c>
+      <c r="N14" s="36" t="n">
+        <f aca="false">$B$10-N13</f>
+        <v>681.453098931865</v>
+      </c>
+      <c r="O14" s="36" t="n">
+        <f aca="false">$B$10-O13</f>
+        <v>685.337381595777</v>
+      </c>
+      <c r="P14" s="36" t="n">
+        <f aca="false">$B$10-P13</f>
+        <v>689.243804670873</v>
+      </c>
+      <c r="Q14" s="36" t="n">
+        <f aca="false">$B$10-Q13</f>
+        <v>693.172494357497</v>
+      </c>
+      <c r="R14" s="36" t="n">
+        <f aca="false">$B$10-R13</f>
+        <v>697.123577575334</v>
+      </c>
+      <c r="S14" s="36" t="n">
+        <f aca="false">$B$10-S13</f>
+        <v>701.097181967514</v>
+      </c>
+      <c r="T14" s="36" t="n">
+        <f aca="false">$B$10-T13</f>
+        <v>705.093435904729</v>
+      </c>
+      <c r="U14" s="36" t="n">
+        <f aca="false">$B$10-U13</f>
+        <v>709.112468489386</v>
+      </c>
+      <c r="V14" s="36" t="n">
+        <f aca="false">$B$10-V13</f>
+        <v>713.154409559775</v>
+      </c>
+      <c r="W14" s="36" t="n">
+        <f aca="false">$B$10-W13</f>
+        <v>717.219389694266</v>
+      </c>
+      <c r="X14" s="36" t="n">
+        <f aca="false">$B$10-X13</f>
+        <v>721.307540215523</v>
+      </c>
+      <c r="Y14" s="36" t="n">
+        <f aca="false">$B$10-Y13</f>
+        <v>725.418993194752</v>
+      </c>
+      <c r="Z14" s="36" t="n">
+        <f aca="false">$B$10-Z13</f>
+        <v>729.553881455962</v>
+      </c>
+      <c r="AA14" s="36" t="n">
+        <f aca="false">$B$10-AA13</f>
+        <v>733.712338580261</v>
+      </c>
+      <c r="AB14" s="36" t="n">
+        <f aca="false">$B$10-AB13</f>
+        <v>737.894498910168</v>
+      </c>
+      <c r="AC14" s="36" t="n">
+        <f aca="false">$B$10-AC13</f>
+        <v>742.100497553956</v>
+      </c>
+      <c r="AD14" s="36" t="n">
+        <f aca="false">$B$10-AD13</f>
+        <v>746.330470390014</v>
+      </c>
+      <c r="AE14" s="36" t="n">
+        <f aca="false">$B$10-AE13</f>
+        <v>750.584554071237</v>
+      </c>
+      <c r="AF14" s="36" t="n">
+        <f aca="false">$B$10-AF13</f>
+        <v>754.862886029443</v>
+      </c>
+      <c r="AG14" s="36" t="n">
+        <f aca="false">$B$10-AG13</f>
+        <v>759.165604479811</v>
+      </c>
+      <c r="AH14" s="36" t="n">
+        <f aca="false">$B$10-AH13</f>
+        <v>763.492848425345</v>
+      </c>
+      <c r="AI14" s="36" t="n">
+        <f aca="false">$B$10-AI13</f>
+        <v>767.84475766137</v>
+      </c>
+      <c r="AJ14" s="36" t="n">
+        <f aca="false">$B$10-AJ13</f>
+        <v>772.22147278004</v>
+      </c>
+      <c r="AK14" s="36" t="n">
+        <f aca="false">$B$10-AK13</f>
+        <v>776.623135174886</v>
+      </c>
+      <c r="AL14" s="36" t="n">
+        <f aca="false">$B$10-AL13</f>
+        <v>781.049887045383</v>
+      </c>
       <c r="AM14" s="36"/>
       <c r="AN14" s="36"/>
       <c r="AO14" s="36"/>
       <c r="AP14" s="36"/>
     </row>
-    <row r="15" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
+        <v>113</v>
+      </c>
+      <c r="B15" s="36" t="n">
+        <f aca="false">B9</f>
+        <v>25500</v>
+      </c>
+      <c r="C15" s="36" t="n">
+        <f aca="false">C12-C14</f>
+        <v>24859.8481285985</v>
+      </c>
+      <c r="D15" s="36" t="n">
+        <f aca="false">D12-D14</f>
+        <v>24216.0473915299</v>
+      </c>
+      <c r="E15" s="36" t="n">
+        <f aca="false">E12-E14</f>
+        <v>23568.5769902601</v>
+      </c>
+      <c r="F15" s="36" t="n">
+        <f aca="false">F12-F14</f>
+        <v>22917.4160077031</v>
+      </c>
+      <c r="G15" s="36" t="n">
+        <f aca="false">G12-G14</f>
+        <v>22262.5434075454</v>
+      </c>
+      <c r="H15" s="36" t="n">
+        <f aca="false">H12-H14</f>
+        <v>21603.9380335669</v>
+      </c>
+      <c r="I15" s="36" t="n">
+        <f aca="false">I12-I14</f>
+        <v>20941.5786089567</v>
+      </c>
+      <c r="J15" s="36" t="n">
+        <f aca="false">J12-J14</f>
+        <v>20275.4437356262</v>
+      </c>
+      <c r="K15" s="36" t="n">
+        <f aca="false">K12-K14</f>
+        <v>19605.5118935177</v>
+      </c>
+      <c r="L15" s="36" t="n">
+        <f aca="false">L12-L14</f>
+        <v>18931.7614399092</v>
+      </c>
+      <c r="M15" s="36" t="n">
+        <f aca="false">M12-M14</f>
+        <v>18254.1706087152</v>
+      </c>
+      <c r="N15" s="36" t="n">
+        <f aca="false">N12-N14</f>
+        <v>17572.7175097833</v>
+      </c>
+      <c r="O15" s="36" t="n">
+        <f aca="false">O12-O14</f>
+        <v>16887.3801281875</v>
+      </c>
+      <c r="P15" s="36" t="n">
+        <f aca="false">P12-P14</f>
+        <v>16198.1363235167</v>
+      </c>
+      <c r="Q15" s="36" t="n">
+        <f aca="false">Q12-Q14</f>
+        <v>15504.9638291592</v>
+      </c>
+      <c r="R15" s="36" t="n">
+        <f aca="false">R12-R14</f>
+        <v>14807.8402515838</v>
+      </c>
+      <c r="S15" s="36" t="n">
+        <f aca="false">S12-S14</f>
+        <v>14106.7430696163</v>
+      </c>
+      <c r="T15" s="36" t="n">
+        <f aca="false">T12-T14</f>
+        <v>13401.6496337116</v>
+      </c>
+      <c r="U15" s="36" t="n">
+        <f aca="false">U12-U14</f>
+        <v>12692.5371652222</v>
+      </c>
+      <c r="V15" s="36" t="n">
+        <f aca="false">V12-V14</f>
+        <v>11979.3827556624</v>
+      </c>
+      <c r="W15" s="36" t="n">
+        <f aca="false">W12-W14</f>
+        <v>11262.1633659682</v>
+      </c>
+      <c r="X15" s="36" t="n">
+        <f aca="false">X12-X14</f>
+        <v>10540.8558257526</v>
+      </c>
+      <c r="Y15" s="36" t="n">
+        <f aca="false">Y12-Y14</f>
+        <v>9815.43683255788</v>
+      </c>
+      <c r="Z15" s="36" t="n">
+        <f aca="false">Z12-Z14</f>
+        <v>9085.88295110192</v>
+      </c>
+      <c r="AA15" s="36" t="n">
+        <f aca="false">AA12-AA14</f>
+        <v>8352.17061252166</v>
+      </c>
+      <c r="AB15" s="36" t="n">
+        <f aca="false">AB12-AB14</f>
+        <v>7614.27611361149</v>
+      </c>
+      <c r="AC15" s="36" t="n">
+        <f aca="false">AC12-AC14</f>
+        <v>6872.17561605753</v>
+      </c>
+      <c r="AD15" s="36" t="n">
+        <f aca="false">AD12-AD14</f>
+        <v>6125.84514566752</v>
+      </c>
+      <c r="AE15" s="36" t="n">
+        <f aca="false">AE12-AE14</f>
+        <v>5375.26059159628</v>
+      </c>
+      <c r="AF15" s="36" t="n">
+        <f aca="false">AF12-AF14</f>
+        <v>4620.39770556684</v>
+      </c>
+      <c r="AG15" s="36" t="n">
+        <f aca="false">AG12-AG14</f>
+        <v>3861.23210108703</v>
+      </c>
+      <c r="AH15" s="36" t="n">
+        <f aca="false">AH12-AH14</f>
+        <v>3097.73925266168</v>
+      </c>
+      <c r="AI15" s="36" t="n">
+        <f aca="false">AI12-AI14</f>
+        <v>2329.89449500031</v>
+      </c>
+      <c r="AJ15" s="36" t="n">
+        <f aca="false">AJ12-AJ14</f>
+        <v>1557.67302222027</v>
+      </c>
+      <c r="AK15" s="36" t="n">
+        <f aca="false">AK12-AK14</f>
+        <v>781.049887045385</v>
+      </c>
+      <c r="AL15" s="36" t="n">
+        <f aca="false">AL12-AL14</f>
+        <v>0</v>
+      </c>
       <c r="AM15" s="36"/>
       <c r="AN15" s="36"/>
       <c r="AO15" s="36"/>
@@ -5703,139 +6422,472 @@
       <c r="AO16" s="36"/>
       <c r="AP16" s="36"/>
     </row>
-    <row r="17" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
+        <v>114</v>
+      </c>
+      <c r="B17" s="36" t="n">
+        <f aca="false">SUM(C14:N14)</f>
+        <v>7927.2824902167</v>
+      </c>
+      <c r="C17" s="36" t="n">
+        <f aca="false">SUM(D14:O14)</f>
+        <v>7972.46800041094</v>
+      </c>
+      <c r="D17" s="36" t="n">
+        <f aca="false">SUM(E14:P14)</f>
+        <v>8017.91106801328</v>
+      </c>
+      <c r="E17" s="36" t="n">
+        <f aca="false">SUM(F14:Q14)</f>
+        <v>8063.61316110096</v>
+      </c>
+      <c r="F17" s="36" t="n">
+        <f aca="false">SUM(G14:R14)</f>
+        <v>8109.57575611923</v>
+      </c>
+      <c r="G17" s="36" t="n">
+        <f aca="false">SUM(H14:S14)</f>
+        <v>8155.80033792911</v>
+      </c>
+      <c r="H17" s="36" t="n">
+        <f aca="false">SUM(I14:T14)</f>
+        <v>8202.28839985531</v>
+      </c>
+      <c r="I17" s="36" t="n">
+        <f aca="false">SUM(J14:U14)</f>
+        <v>8249.04144373448</v>
+      </c>
+      <c r="J17" s="36" t="n">
+        <f aca="false">SUM(K14:V14)</f>
+        <v>8296.06097996377</v>
+      </c>
+      <c r="K17" s="36" t="n">
+        <f aca="false">SUM(L14:W14)</f>
+        <v>8343.34852754956</v>
+      </c>
+      <c r="L17" s="36" t="n">
+        <f aca="false">SUM(M14:X14)</f>
+        <v>8390.9056141566</v>
+      </c>
+      <c r="M17" s="36" t="n">
+        <f aca="false">SUM(N14:Y14)</f>
+        <v>8438.73377615729</v>
+      </c>
+      <c r="N17" s="36" t="n">
+        <f aca="false">SUM(O14:Z14)</f>
+        <v>8486.83455868139</v>
+      </c>
+      <c r="O17" s="36" t="n">
+        <f aca="false">SUM(P14:AA14)</f>
+        <v>8535.20951566587</v>
+      </c>
+      <c r="P17" s="36" t="n">
+        <f aca="false">SUM(Q14:AB14)</f>
+        <v>8583.86020990516</v>
+      </c>
+      <c r="Q17" s="36" t="n">
+        <f aca="false">SUM(R14:AC14)</f>
+        <v>8632.78821310162</v>
+      </c>
+      <c r="R17" s="36" t="n">
+        <f aca="false">SUM(S14:AD14)</f>
+        <v>8681.9951059163</v>
+      </c>
+      <c r="S17" s="36" t="n">
+        <f aca="false">SUM(T14:AE14)</f>
+        <v>8731.48247802003</v>
+      </c>
+      <c r="T17" s="36" t="n">
+        <f aca="false">SUM(U14:AF14)</f>
+        <v>8781.25192814474</v>
+      </c>
+      <c r="U17" s="36" t="n">
+        <f aca="false">SUM(V14:AG14)</f>
+        <v>8831.30506413517</v>
+      </c>
+      <c r="V17" s="36" t="n">
+        <f aca="false">SUM(W14:AH14)</f>
+        <v>8881.64350300074</v>
+      </c>
+      <c r="W17" s="36" t="n">
+        <f aca="false">SUM(X14:AI14)</f>
+        <v>8932.26887096784</v>
+      </c>
+      <c r="X17" s="36" t="n">
+        <f aca="false">SUM(Y14:AJ14)</f>
+        <v>8983.18280353236</v>
+      </c>
+      <c r="Y17" s="36" t="n">
+        <f aca="false">SUM(Z14:AK14)</f>
+        <v>9034.38694551249</v>
+      </c>
+      <c r="Z17" s="36" t="n">
+        <f aca="false">SUM(AA14:AL14)</f>
+        <v>9085.88295110191</v>
+      </c>
+      <c r="AA17" s="36" t="n">
+        <f aca="false">SUM(AB14:AM14)</f>
+        <v>8352.17061252165</v>
+      </c>
+      <c r="AB17" s="36" t="n">
+        <f aca="false">SUM(AC14:AN14)</f>
+        <v>7614.27611361148</v>
+      </c>
+      <c r="AC17" s="36" t="n">
+        <f aca="false">SUM(AD14:AO14)</f>
+        <v>6872.17561605753</v>
+      </c>
+      <c r="AD17" s="36" t="n">
+        <f aca="false">SUM(AE14:AP14)</f>
+        <v>6125.84514566751</v>
+      </c>
+      <c r="AE17" s="36" t="n">
+        <f aca="false">SUM(AF14:AQ14)</f>
+        <v>5375.26059159628</v>
+      </c>
+      <c r="AF17" s="36" t="n">
+        <f aca="false">SUM(AG14:AR14)</f>
+        <v>4620.39770556684</v>
+      </c>
+      <c r="AG17" s="36" t="n">
+        <f aca="false">SUM(AH14:AS14)</f>
+        <v>3861.23210108702</v>
+      </c>
+      <c r="AH17" s="36" t="n">
+        <f aca="false">SUM(AI14:AT14)</f>
+        <v>3097.73925266168</v>
+      </c>
+      <c r="AI17" s="36" t="n">
+        <f aca="false">SUM(AJ14:AU14)</f>
+        <v>2329.89449500031</v>
+      </c>
+      <c r="AJ17" s="36" t="n">
+        <f aca="false">SUM(AK14:AV14)</f>
+        <v>1557.67302222027</v>
+      </c>
+      <c r="AK17" s="36" t="n">
+        <f aca="false">SUM(AL14:AW14)</f>
+        <v>781.049887045383</v>
+      </c>
+      <c r="AL17" s="36" t="n">
+        <f aca="false">SUM(AM14:AX14)</f>
+        <v>0</v>
+      </c>
       <c r="AM17" s="36"/>
       <c r="AN17" s="36"/>
       <c r="AO17" s="36"/>
       <c r="AP17" s="36"/>
     </row>
-    <row r="18" s="37" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
+        <v>115</v>
+      </c>
+      <c r="B18" s="36" t="n">
+        <f aca="false">N15</f>
+        <v>17572.7175097833</v>
+      </c>
+      <c r="C18" s="36" t="n">
+        <f aca="false">O15</f>
+        <v>16887.3801281875</v>
+      </c>
+      <c r="D18" s="36" t="n">
+        <f aca="false">P15</f>
+        <v>16198.1363235167</v>
+      </c>
+      <c r="E18" s="36" t="n">
+        <f aca="false">Q15</f>
+        <v>15504.9638291592</v>
+      </c>
+      <c r="F18" s="36" t="n">
+        <f aca="false">R15</f>
+        <v>14807.8402515838</v>
+      </c>
+      <c r="G18" s="36" t="n">
+        <f aca="false">S15</f>
+        <v>14106.7430696163</v>
+      </c>
+      <c r="H18" s="36" t="n">
+        <f aca="false">T15</f>
+        <v>13401.6496337116</v>
+      </c>
+      <c r="I18" s="36" t="n">
+        <f aca="false">U15</f>
+        <v>12692.5371652222</v>
+      </c>
+      <c r="J18" s="36" t="n">
+        <f aca="false">V15</f>
+        <v>11979.3827556624</v>
+      </c>
+      <c r="K18" s="36" t="n">
+        <f aca="false">W15</f>
+        <v>11262.1633659682</v>
+      </c>
+      <c r="L18" s="36" t="n">
+        <f aca="false">X15</f>
+        <v>10540.8558257526</v>
+      </c>
+      <c r="M18" s="36" t="n">
+        <f aca="false">Y15</f>
+        <v>9815.43683255788</v>
+      </c>
+      <c r="N18" s="36" t="n">
+        <f aca="false">Z15</f>
+        <v>9085.88295110192</v>
+      </c>
+      <c r="O18" s="36" t="n">
+        <f aca="false">AA15</f>
+        <v>8352.17061252166</v>
+      </c>
+      <c r="P18" s="36" t="n">
+        <f aca="false">AB15</f>
+        <v>7614.27611361149</v>
+      </c>
+      <c r="Q18" s="36" t="n">
+        <f aca="false">AC15</f>
+        <v>6872.17561605753</v>
+      </c>
+      <c r="R18" s="36" t="n">
+        <f aca="false">AD15</f>
+        <v>6125.84514566752</v>
+      </c>
+      <c r="S18" s="36" t="n">
+        <f aca="false">AE15</f>
+        <v>5375.26059159628</v>
+      </c>
+      <c r="T18" s="36" t="n">
+        <f aca="false">AF15</f>
+        <v>4620.39770556684</v>
+      </c>
+      <c r="U18" s="36" t="n">
+        <f aca="false">AG15</f>
+        <v>3861.23210108703</v>
+      </c>
+      <c r="V18" s="36" t="n">
+        <f aca="false">AH15</f>
+        <v>3097.73925266168</v>
+      </c>
+      <c r="W18" s="36" t="n">
+        <f aca="false">AI15</f>
+        <v>2329.89449500031</v>
+      </c>
+      <c r="X18" s="36" t="n">
+        <f aca="false">AJ15</f>
+        <v>1557.67302222027</v>
+      </c>
+      <c r="Y18" s="36" t="n">
+        <f aca="false">AK15</f>
+        <v>781.049887045385</v>
+      </c>
+      <c r="Z18" s="36" t="n">
+        <f aca="false">AL15</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="36" t="n">
+        <f aca="false">AM15</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="36" t="n">
+        <f aca="false">AN15</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="36" t="n">
+        <f aca="false">AO15</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="36" t="n">
+        <f aca="false">AP15</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="36" t="n">
+        <f aca="false">AQ15</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="36" t="n">
+        <f aca="false">AR15</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="36" t="n">
+        <f aca="false">AS15</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="36" t="n">
+        <f aca="false">AT15</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="36" t="n">
+        <f aca="false">AU15</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="36" t="n">
+        <f aca="false">AV15</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="36" t="n">
+        <f aca="false">AW15</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="36" t="n">
+        <f aca="false">AX15</f>
+        <v>0</v>
+      </c>
       <c r="AM18" s="36"/>
       <c r="AN18" s="36"/>
       <c r="AO18" s="36"/>
       <c r="AP18" s="36"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
+        <v>101</v>
+      </c>
+      <c r="B19" s="36" t="n">
+        <f aca="false">B18+B17</f>
+        <v>25500</v>
+      </c>
+      <c r="C19" s="36" t="n">
+        <f aca="false">C18+C17</f>
+        <v>24859.8481285985</v>
+      </c>
+      <c r="D19" s="36" t="n">
+        <f aca="false">D18+D17</f>
+        <v>24216.0473915299</v>
+      </c>
+      <c r="E19" s="36" t="n">
+        <f aca="false">E18+E17</f>
+        <v>23568.5769902601</v>
+      </c>
+      <c r="F19" s="36" t="n">
+        <f aca="false">F18+F17</f>
+        <v>22917.4160077031</v>
+      </c>
+      <c r="G19" s="36" t="n">
+        <f aca="false">G18+G17</f>
+        <v>22262.5434075454</v>
+      </c>
+      <c r="H19" s="36" t="n">
+        <f aca="false">H18+H17</f>
+        <v>21603.9380335669</v>
+      </c>
+      <c r="I19" s="36" t="n">
+        <f aca="false">I18+I17</f>
+        <v>20941.5786089567</v>
+      </c>
+      <c r="J19" s="36" t="n">
+        <f aca="false">J18+J17</f>
+        <v>20275.4437356262</v>
+      </c>
+      <c r="K19" s="36" t="n">
+        <f aca="false">K18+K17</f>
+        <v>19605.5118935177</v>
+      </c>
+      <c r="L19" s="36" t="n">
+        <f aca="false">L18+L17</f>
+        <v>18931.7614399092</v>
+      </c>
+      <c r="M19" s="36" t="n">
+        <f aca="false">M18+M17</f>
+        <v>18254.1706087152</v>
+      </c>
+      <c r="N19" s="36" t="n">
+        <f aca="false">N18+N17</f>
+        <v>17572.7175097833</v>
+      </c>
+      <c r="O19" s="36" t="n">
+        <f aca="false">O18+O17</f>
+        <v>16887.3801281875</v>
+      </c>
+      <c r="P19" s="36" t="n">
+        <f aca="false">P18+P17</f>
+        <v>16198.1363235167</v>
+      </c>
+      <c r="Q19" s="36" t="n">
+        <f aca="false">Q18+Q17</f>
+        <v>15504.9638291592</v>
+      </c>
+      <c r="R19" s="36" t="n">
+        <f aca="false">R18+R17</f>
+        <v>14807.8402515838</v>
+      </c>
+      <c r="S19" s="36" t="n">
+        <f aca="false">S18+S17</f>
+        <v>14106.7430696163</v>
+      </c>
+      <c r="T19" s="36" t="n">
+        <f aca="false">T18+T17</f>
+        <v>13401.6496337116</v>
+      </c>
+      <c r="U19" s="36" t="n">
+        <f aca="false">U18+U17</f>
+        <v>12692.5371652222</v>
+      </c>
+      <c r="V19" s="36" t="n">
+        <f aca="false">V18+V17</f>
+        <v>11979.3827556624</v>
+      </c>
+      <c r="W19" s="36" t="n">
+        <f aca="false">W18+W17</f>
+        <v>11262.1633659682</v>
+      </c>
+      <c r="X19" s="36" t="n">
+        <f aca="false">X18+X17</f>
+        <v>10540.8558257526</v>
+      </c>
+      <c r="Y19" s="36" t="n">
+        <f aca="false">Y18+Y17</f>
+        <v>9815.43683255788</v>
+      </c>
+      <c r="Z19" s="36" t="n">
+        <f aca="false">Z18+Z17</f>
+        <v>9085.88295110191</v>
+      </c>
+      <c r="AA19" s="36" t="n">
+        <f aca="false">AA18+AA17</f>
+        <v>8352.17061252165</v>
+      </c>
+      <c r="AB19" s="36" t="n">
+        <f aca="false">AB18+AB17</f>
+        <v>7614.27611361148</v>
+      </c>
+      <c r="AC19" s="36" t="n">
+        <f aca="false">AC18+AC17</f>
+        <v>6872.17561605753</v>
+      </c>
+      <c r="AD19" s="36" t="n">
+        <f aca="false">AD18+AD17</f>
+        <v>6125.84514566751</v>
+      </c>
+      <c r="AE19" s="36" t="n">
+        <f aca="false">AE18+AE17</f>
+        <v>5375.26059159628</v>
+      </c>
+      <c r="AF19" s="36" t="n">
+        <f aca="false">AF18+AF17</f>
+        <v>4620.39770556684</v>
+      </c>
+      <c r="AG19" s="36" t="n">
+        <f aca="false">AG18+AG17</f>
+        <v>3861.23210108702</v>
+      </c>
+      <c r="AH19" s="36" t="n">
+        <f aca="false">AH18+AH17</f>
+        <v>3097.73925266168</v>
+      </c>
+      <c r="AI19" s="36" t="n">
+        <f aca="false">AI18+AI17</f>
+        <v>2329.89449500031</v>
+      </c>
+      <c r="AJ19" s="36" t="n">
+        <f aca="false">AJ18+AJ17</f>
+        <v>1557.67302222027</v>
+      </c>
+      <c r="AK19" s="36" t="n">
+        <f aca="false">AK18+AK17</f>
+        <v>781.049887045383</v>
+      </c>
+      <c r="AL19" s="36" t="n">
+        <f aca="false">AL18+AL17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38"/>
